--- a/src/main/resources/hr/payroll.xlsx
+++ b/src/main/resources/hr/payroll.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr checkCompatibility="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\laquna-api\src\main\resources\hr\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75BD064-8163-4322-B8E9-8A77E4189621}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21885" windowHeight="10170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21885" windowHeight="10170"/>
   </bookViews>
   <sheets>
     <sheet name="급여표(정규직)" sheetId="11" r:id="rId1"/>
@@ -160,7 +154,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="8">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
@@ -507,59 +501,77 @@
     <xf numFmtId="177" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="41" fontId="6" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
@@ -567,39 +579,21 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="쉼표 [0] 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="쉼표 [0] 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="쉼표 [0] 3 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="쉼표 [0] 4 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="쉼표 [0] 2" xfId="2"/>
+    <cellStyle name="쉼표 [0] 3" xfId="6"/>
+    <cellStyle name="쉼표 [0] 3 2" xfId="8"/>
+    <cellStyle name="쉼표 [0] 4 2" xfId="12"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="표준 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="표준 2 3 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="표준 28" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="표준 28 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="표준 3" xfId="4" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="표준 4" xfId="9" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="표준_2005년 급여대장" xfId="1" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="표준 2" xfId="3"/>
+    <cellStyle name="표준 2 2" xfId="5"/>
+    <cellStyle name="표준 2 3 2" xfId="10"/>
+    <cellStyle name="표준 28" xfId="7"/>
+    <cellStyle name="표준 28 2" xfId="11"/>
+    <cellStyle name="표준 3" xfId="4"/>
+    <cellStyle name="표준 4" xfId="9"/>
+    <cellStyle name="표준_2005년 급여대장" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -657,7 +651,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -692,7 +686,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -869,18 +863,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{379311F1-0F53-4C1C-B508-51721EB57E4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -905,39 +899,39 @@
         <v>1</v>
       </c>
       <c r="B1" s="22"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="32"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="21"/>
       <c r="G1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="22"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="32"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="30"/>
       <c r="K1" s="21"/>
       <c r="M1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="N1" s="22"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="32"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="30"/>
       <c r="Q1" s="21"/>
     </row>
     <row r="2" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="33"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="31"/>
       <c r="E2" s="21"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="33"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="31"/>
       <c r="K2" s="21"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="33"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="31"/>
       <c r="Q2" s="21"/>
     </row>
     <row r="3" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -946,45 +940,45 @@
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="27"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="43"/>
       <c r="G3" s="13" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="29"/>
       <c r="I3" s="27"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="37"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="43"/>
       <c r="M3" s="13" t="s">
         <v>2</v>
       </c>
       <c r="N3" s="29"/>
       <c r="O3" s="27"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="37"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="43"/>
     </row>
     <row r="4" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="19"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41"/>
-      <c r="G4" s="42" t="s">
+      <c r="D4" s="38"/>
+      <c r="E4" s="39"/>
+      <c r="G4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="43"/>
+      <c r="H4" s="37"/>
       <c r="I4" s="19"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="41"/>
-      <c r="M4" s="42" t="s">
+      <c r="J4" s="38"/>
+      <c r="K4" s="39"/>
+      <c r="M4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="43"/>
+      <c r="N4" s="37"/>
       <c r="O4" s="19"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="41"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="39"/>
     </row>
     <row r="5" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
@@ -992,22 +986,22 @@
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="27"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="39"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="45"/>
       <c r="G5" s="13" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="27"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="39"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="45"/>
       <c r="M5" s="13" t="s">
         <v>4</v>
       </c>
       <c r="N5" s="13"/>
       <c r="O5" s="27"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="39"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="45"/>
     </row>
     <row r="6" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
@@ -1017,8 +1011,8 @@
         <v>6</v>
       </c>
       <c r="C6" s="27"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="31"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="41"/>
       <c r="G6" s="28" t="s">
         <v>5</v>
       </c>
@@ -1026,8 +1020,8 @@
         <v>6</v>
       </c>
       <c r="I6" s="27"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="31"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="41"/>
       <c r="M6" s="28" t="s">
         <v>5</v>
       </c>
@@ -1035,8 +1029,8 @@
         <v>6</v>
       </c>
       <c r="O6" s="27"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="31"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="41"/>
     </row>
     <row r="7" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
@@ -1044,22 +1038,22 @@
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="27"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="31"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="41"/>
       <c r="G7" s="13" t="s">
         <v>7</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="27"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="31"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="41"/>
       <c r="M7" s="13" t="s">
         <v>7</v>
       </c>
       <c r="N7" s="13"/>
       <c r="O7" s="27"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="31"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="41"/>
     </row>
     <row r="8" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="28" t="s">
@@ -1069,8 +1063,8 @@
         <v>6</v>
       </c>
       <c r="C8" s="27"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="31"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="41"/>
       <c r="G8" s="28" t="s">
         <v>8</v>
       </c>
@@ -1078,8 +1072,8 @@
         <v>6</v>
       </c>
       <c r="I8" s="27"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="31"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="41"/>
       <c r="M8" s="28" t="s">
         <v>8</v>
       </c>
@@ -1087,60 +1081,60 @@
         <v>6</v>
       </c>
       <c r="O8" s="27"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="31"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="41"/>
     </row>
     <row r="9" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="30" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="27"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="31"/>
-      <c r="G9" s="32" t="s">
+      <c r="D9" s="40"/>
+      <c r="E9" s="41"/>
+      <c r="G9" s="30" t="s">
         <v>9</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>10</v>
       </c>
       <c r="I9" s="27"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="31"/>
-      <c r="M9" s="32" t="s">
+      <c r="J9" s="40"/>
+      <c r="K9" s="41"/>
+      <c r="M9" s="30" t="s">
         <v>9</v>
       </c>
       <c r="N9" s="13" t="s">
         <v>10</v>
       </c>
       <c r="O9" s="27"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="31"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="41"/>
     </row>
     <row r="10" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="33"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="27"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="31"/>
-      <c r="G10" s="33"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="41"/>
+      <c r="G10" s="31"/>
       <c r="H10" s="13" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="27"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="31"/>
-      <c r="M10" s="33"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="41"/>
+      <c r="M10" s="31"/>
       <c r="N10" s="13" t="s">
         <v>11</v>
       </c>
       <c r="O10" s="27"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="31"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="41"/>
     </row>
     <row r="11" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
@@ -1150,8 +1144,8 @@
         <v>6</v>
       </c>
       <c r="C11" s="27"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="41"/>
       <c r="G11" s="28" t="s">
         <v>12</v>
       </c>
@@ -1159,8 +1153,8 @@
         <v>6</v>
       </c>
       <c r="I11" s="27"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="31"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="41"/>
       <c r="M11" s="28" t="s">
         <v>12</v>
       </c>
@@ -1168,8 +1162,8 @@
         <v>6</v>
       </c>
       <c r="O11" s="27"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="31"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="41"/>
     </row>
     <row r="12" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
@@ -1177,8 +1171,8 @@
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="26"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="41"/>
       <c r="G12" s="13" t="s">
         <v>13</v>
       </c>
@@ -1186,15 +1180,15 @@
         <v>0</v>
       </c>
       <c r="I12" s="26"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="31"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="41"/>
       <c r="M12" s="13" t="s">
         <v>13</v>
       </c>
       <c r="N12" s="13"/>
       <c r="O12" s="26"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="31"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="41"/>
       <c r="V12" s="5"/>
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
@@ -1207,8 +1201,8 @@
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="26"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="41"/>
       <c r="G13" s="13" t="s">
         <v>14</v>
       </c>
@@ -1216,15 +1210,15 @@
         <v>0</v>
       </c>
       <c r="I13" s="26"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="31"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="41"/>
       <c r="M13" s="13" t="s">
         <v>14</v>
       </c>
       <c r="N13" s="13"/>
       <c r="O13" s="26"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="31"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="41"/>
       <c r="V13" s="5"/>
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
@@ -1237,8 +1231,8 @@
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="31"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
       <c r="F14" s="1"/>
       <c r="G14" s="13" t="s">
         <v>15</v>
@@ -1247,16 +1241,16 @@
         <v>0</v>
       </c>
       <c r="I14" s="25"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="31"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="41"/>
       <c r="L14" s="1"/>
       <c r="M14" s="13" t="s">
         <v>15</v>
       </c>
       <c r="N14" s="13"/>
       <c r="O14" s="25"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="31"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="41"/>
       <c r="R14" s="1"/>
       <c r="S14" s="2"/>
       <c r="T14" s="3"/>
@@ -1335,22 +1329,22 @@
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="24"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="35"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="47"/>
       <c r="F17" s="1"/>
       <c r="G17" s="8" t="s">
         <v>17</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="24"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="35"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="47"/>
       <c r="L17" s="1"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="7"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="35"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="47"/>
       <c r="R17" s="1"/>
       <c r="S17" s="2"/>
       <c r="T17" s="3"/>
@@ -1363,25 +1357,31 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="D10:E10"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="J5:K5"/>
@@ -1392,47 +1392,41 @@
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="O1:O2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.9055118110236221" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"맑은 고딕,보통"&amp;11 3월 급여&amp;R&amp;"맑은 고딕,보통"&amp;11&amp;P</oddHeader>
+    <oddHeader>&amp;L&amp;"맑은 고딕,보통"&amp;11급여&amp;R&amp;"맑은 고딕,보통"&amp;11&amp;P</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F670D6-106E-4560-AF85-107106A446D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D10" sqref="D10:E10"/>
     </sheetView>
   </sheetViews>
@@ -1458,24 +1452,24 @@
         <v>1</v>
       </c>
       <c r="B1" s="22"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="32"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="21"/>
       <c r="F1" s="1"/>
       <c r="G1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="22"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="32"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="30"/>
       <c r="K1" s="21"/>
       <c r="L1" s="1"/>
       <c r="M1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="N1" s="22"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="32"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="30"/>
       <c r="Q1" s="21"/>
       <c r="R1" s="1"/>
       <c r="S1" s="2"/>
@@ -1488,20 +1482,20 @@
       <c r="Z1" s="5"/>
     </row>
     <row r="2" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="33"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="31"/>
       <c r="E2" s="21"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="33"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="31"/>
       <c r="K2" s="21"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="33"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="31"/>
       <c r="Q2" s="21"/>
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
@@ -1510,70 +1504,70 @@
       <c r="Z2" s="5"/>
     </row>
     <row r="3" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="20"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
-      <c r="G3" s="42" t="s">
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
+      <c r="G3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="43"/>
+      <c r="H3" s="37"/>
       <c r="I3" s="20"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
-      <c r="M3" s="42" t="s">
+      <c r="J3" s="48"/>
+      <c r="K3" s="49"/>
+      <c r="M3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="43"/>
+      <c r="N3" s="37"/>
       <c r="O3" s="20"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="55"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="49"/>
     </row>
     <row r="4" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="53"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="19"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41"/>
-      <c r="G4" s="52" t="s">
+      <c r="D4" s="38"/>
+      <c r="E4" s="39"/>
+      <c r="G4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="53"/>
+      <c r="H4" s="51"/>
       <c r="I4" s="19"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="41"/>
-      <c r="M4" s="52" t="s">
+      <c r="J4" s="38"/>
+      <c r="K4" s="39"/>
+      <c r="M4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="53"/>
+      <c r="N4" s="51"/>
       <c r="O4" s="19"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="41"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="39"/>
     </row>
     <row r="5" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="53"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="19"/>
       <c r="D5" s="18"/>
       <c r="E5" s="17"/>
-      <c r="G5" s="52" t="s">
+      <c r="G5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="53"/>
+      <c r="H5" s="51"/>
       <c r="I5" s="19"/>
       <c r="J5" s="18"/>
       <c r="K5" s="17"/>
-      <c r="M5" s="52" t="s">
+      <c r="M5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="53"/>
+      <c r="N5" s="51"/>
       <c r="O5" s="19"/>
       <c r="P5" s="18"/>
       <c r="Q5" s="17"/>
@@ -1584,178 +1578,178 @@
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="31"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="41"/>
       <c r="G6" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="14"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="31"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="41"/>
       <c r="M6" s="13" t="s">
         <v>20</v>
       </c>
       <c r="N6" s="13"/>
       <c r="O6" s="14"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="31"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="41"/>
     </row>
     <row r="7" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="52" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="14"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="31"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="40"/>
+      <c r="E7" s="41"/>
+      <c r="G7" s="52" t="s">
         <v>21</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>22</v>
       </c>
       <c r="I7" s="14"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="31"/>
-      <c r="M7" s="50" t="s">
+      <c r="J7" s="40"/>
+      <c r="K7" s="41"/>
+      <c r="M7" s="52" t="s">
         <v>21</v>
       </c>
       <c r="N7" s="13" t="s">
         <v>22</v>
       </c>
       <c r="O7" s="14"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="31"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="41"/>
     </row>
     <row r="8" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="51"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="14"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="31"/>
-      <c r="G8" s="51"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="41"/>
+      <c r="G8" s="53"/>
       <c r="H8" s="13" t="s">
         <v>23</v>
       </c>
       <c r="I8" s="14"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="31"/>
-      <c r="M8" s="51"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="41"/>
+      <c r="M8" s="53"/>
       <c r="N8" s="13" t="s">
         <v>23</v>
       </c>
       <c r="O8" s="14"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="31"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="41"/>
     </row>
     <row r="9" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="30" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="16"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="31"/>
-      <c r="G9" s="32" t="s">
+      <c r="D9" s="40"/>
+      <c r="E9" s="41"/>
+      <c r="G9" s="30" t="s">
         <v>24</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>10</v>
       </c>
       <c r="I9" s="16"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="31"/>
-      <c r="M9" s="32" t="s">
+      <c r="J9" s="40"/>
+      <c r="K9" s="41"/>
+      <c r="M9" s="30" t="s">
         <v>24</v>
       </c>
       <c r="N9" s="13" t="s">
         <v>10</v>
       </c>
       <c r="O9" s="16"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="31"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="41"/>
     </row>
     <row r="10" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="33"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="16"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="31"/>
-      <c r="G10" s="33"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="41"/>
+      <c r="G10" s="31"/>
       <c r="H10" s="13" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="16"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="31"/>
-      <c r="M10" s="33"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="41"/>
+      <c r="M10" s="31"/>
       <c r="N10" s="13" t="s">
         <v>11</v>
       </c>
       <c r="O10" s="16"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="31"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="41"/>
     </row>
     <row r="11" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="30" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="14"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31"/>
-      <c r="G11" s="32" t="s">
+      <c r="D11" s="40"/>
+      <c r="E11" s="41"/>
+      <c r="G11" s="30" t="s">
         <v>25</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>26</v>
       </c>
       <c r="I11" s="14"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="31"/>
-      <c r="M11" s="32" t="s">
+      <c r="J11" s="40"/>
+      <c r="K11" s="41"/>
+      <c r="M11" s="30" t="s">
         <v>25</v>
       </c>
       <c r="N11" s="13" t="s">
         <v>26</v>
       </c>
       <c r="O11" s="14"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="31"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="41"/>
     </row>
     <row r="12" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="33"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="14"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
-      <c r="G12" s="33"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="41"/>
+      <c r="G12" s="31"/>
       <c r="H12" s="13" t="s">
         <v>27</v>
       </c>
       <c r="I12" s="14"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="31"/>
-      <c r="M12" s="33"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="41"/>
+      <c r="M12" s="31"/>
       <c r="N12" s="13" t="s">
         <v>27</v>
       </c>
       <c r="O12" s="14"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="31"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="41"/>
     </row>
     <row r="13" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
@@ -1763,8 +1757,8 @@
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="11"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="55"/>
       <c r="G13" s="13" t="s">
         <v>28</v>
       </c>
@@ -1772,15 +1766,15 @@
         <v>0</v>
       </c>
       <c r="I13" s="11"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="49"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="55"/>
       <c r="M13" s="13" t="s">
         <v>28</v>
       </c>
       <c r="N13" s="12"/>
       <c r="O13" s="11"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="49"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="55"/>
     </row>
     <row r="14" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
@@ -1788,8 +1782,8 @@
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="55"/>
       <c r="G14" s="13" t="s">
         <v>29</v>
       </c>
@@ -1797,8 +1791,8 @@
         <v>0</v>
       </c>
       <c r="I14" s="15"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="49"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="55"/>
       <c r="M14" s="13" t="s">
         <v>29</v>
       </c>
@@ -1806,8 +1800,8 @@
         <v>0</v>
       </c>
       <c r="O14" s="14"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="49"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="55"/>
     </row>
     <row r="15" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
@@ -1815,8 +1809,8 @@
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="11"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="31"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41"/>
       <c r="G15" s="13" t="s">
         <v>30</v>
       </c>
@@ -1824,8 +1818,8 @@
         <v>0</v>
       </c>
       <c r="I15" s="11"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="31"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="41"/>
       <c r="M15" s="13" t="s">
         <v>30</v>
       </c>
@@ -1835,8 +1829,8 @@
       <c r="O15" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="31"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="41"/>
     </row>
     <row r="16" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
@@ -1884,51 +1878,49 @@
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="35"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="47"/>
       <c r="G18" s="8" t="s">
         <v>17</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="35"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="47"/>
       <c r="M18" s="8" t="s">
         <v>17</v>
       </c>
       <c r="N18" s="8"/>
       <c r="O18" s="7"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="35"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="M11:M12"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="M9:M10"/>
     <mergeCell ref="P6:Q6"/>
@@ -1945,37 +1937,39 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.9055118110236221" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"맑은 고딕,보통"&amp;11 3월 급여&amp;R&amp;"맑은 고딕,보통"&amp;11&amp;P</oddHeader>
+    <oddHeader>&amp;L&amp;"맑은 고딕,보통"&amp;11급여&amp;R&amp;"맑은 고딕,보통"&amp;11&amp;P</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
--- a/src/main/resources/hr/payroll.xlsx
+++ b/src/main/resources/hr/payroll.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr checkCompatibility="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\laquna-api\src\main\resources\hr\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7111CCE3-5D4A-4F34-804D-36E5EE5A3596}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21885" windowHeight="10170"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21885" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="급여표(정규직)" sheetId="11" r:id="rId1"/>
@@ -24,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="32">
-  <si>
-    <t/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="31">
   <si>
     <t>NO.</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -154,7 +157,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
@@ -239,7 +242,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,12 +252,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,7 +409,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
@@ -471,7 +468,7 @@
     <xf numFmtId="178" fontId="6" fillId="0" borderId="2" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -495,12 +492,24 @@
     <xf numFmtId="178" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -537,12 +546,6 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -555,16 +558,16 @@
     <xf numFmtId="41" fontId="9" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -581,19 +584,19 @@
     </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="쉼표 [0] 2" xfId="2"/>
-    <cellStyle name="쉼표 [0] 3" xfId="6"/>
-    <cellStyle name="쉼표 [0] 3 2" xfId="8"/>
-    <cellStyle name="쉼표 [0] 4 2" xfId="12"/>
+    <cellStyle name="쉼표 [0] 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="쉼표 [0] 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="쉼표 [0] 3 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="쉼표 [0] 4 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="3"/>
-    <cellStyle name="표준 2 2" xfId="5"/>
-    <cellStyle name="표준 2 3 2" xfId="10"/>
-    <cellStyle name="표준 28" xfId="7"/>
-    <cellStyle name="표준 28 2" xfId="11"/>
-    <cellStyle name="표준 3" xfId="4"/>
-    <cellStyle name="표준 4" xfId="9"/>
-    <cellStyle name="표준_2005년 급여대장" xfId="1"/>
+    <cellStyle name="표준 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="표준 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="표준 2 3 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="표준 28" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="표준 28 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="표준 3" xfId="4" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="표준 4" xfId="9" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="표준_2005년 급여대장" xfId="1" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -863,27 +866,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.45" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="10.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="2.42578125" style="1" customWidth="1"/>
-    <col min="7" max="11" width="9.140625" style="1"/>
+    <col min="7" max="11" width="10.28515625" style="1" customWidth="1"/>
     <col min="12" max="12" width="2.42578125" style="1" customWidth="1"/>
-    <col min="13" max="17" width="9.140625" style="1"/>
+    <col min="13" max="17" width="10.28515625" style="1" customWidth="1"/>
     <col min="18" max="18" width="1.85546875" style="1" customWidth="1"/>
     <col min="19" max="19" width="8.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
@@ -896,299 +899,297 @@
   <sheetData>
     <row r="1" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="22"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="30"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="21"/>
       <c r="G1" s="23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1" s="22"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="30"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="34"/>
       <c r="K1" s="21"/>
       <c r="M1" s="23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N1" s="22"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="30"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="34"/>
       <c r="Q1" s="21"/>
     </row>
     <row r="2" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="31"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="35"/>
       <c r="E2" s="21"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="31"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="35"/>
       <c r="K2" s="21"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="31"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="35"/>
       <c r="Q2" s="21"/>
     </row>
     <row r="3" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="27"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="43"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
       <c r="G3" s="13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="29"/>
       <c r="I3" s="27"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="43"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="47"/>
       <c r="M3" s="13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N3" s="29"/>
       <c r="O3" s="27"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="43"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="47"/>
     </row>
     <row r="4" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="37"/>
+      <c r="A4" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="41"/>
       <c r="C4" s="19"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39"/>
-      <c r="G4" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="37"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="43"/>
+      <c r="G4" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="41"/>
       <c r="I4" s="19"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="39"/>
-      <c r="M4" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="N4" s="37"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="43"/>
+      <c r="M4" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="41"/>
       <c r="O4" s="19"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="39"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="43"/>
     </row>
     <row r="5" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="27"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="45"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
       <c r="G5" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="27"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="45"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="47"/>
       <c r="M5" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N5" s="13"/>
       <c r="O5" s="27"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="45"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="47"/>
     </row>
     <row r="6" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>6</v>
-      </c>
       <c r="C6" s="27"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="41"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="45"/>
       <c r="G6" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="13" t="s">
-        <v>6</v>
-      </c>
       <c r="I6" s="27"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="41"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="45"/>
       <c r="M6" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="13" t="s">
-        <v>6</v>
-      </c>
       <c r="O6" s="27"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="41"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="45"/>
     </row>
     <row r="7" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="27"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="41"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="45"/>
       <c r="G7" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="27"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="41"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="45"/>
       <c r="M7" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N7" s="13"/>
       <c r="O7" s="27"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="41"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="45"/>
     </row>
     <row r="8" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="45"/>
+      <c r="G8" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="27"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="45"/>
+      <c r="M8" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="O8" s="27"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="45"/>
+    </row>
+    <row r="9" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="41"/>
-      <c r="G8" s="28" t="s">
+      <c r="B9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="45"/>
+      <c r="G9" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="41"/>
-      <c r="M8" s="28" t="s">
+      <c r="H9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="27"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="45"/>
+      <c r="M9" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="O8" s="27"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="41"/>
-    </row>
-    <row r="9" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="s">
+      <c r="N9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="O9" s="27"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="45"/>
+    </row>
+    <row r="10" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="35"/>
+      <c r="B10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="41"/>
-      <c r="G9" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="13" t="s">
+      <c r="C10" s="27"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="45"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="27"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="41"/>
-      <c r="M9" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="N9" s="13" t="s">
+      <c r="I10" s="27"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="45"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="O9" s="27"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="41"/>
-    </row>
-    <row r="10" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="31"/>
-      <c r="B10" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="41"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="41"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="13" t="s">
-        <v>11</v>
-      </c>
       <c r="O10" s="27"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="41"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="45"/>
     </row>
     <row r="11" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="27"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="41"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="45"/>
       <c r="G11" s="28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I11" s="27"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="41"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="45"/>
       <c r="M11" s="28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O11" s="27"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="41"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="45"/>
     </row>
     <row r="12" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="26"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="41"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="45"/>
       <c r="G12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>0</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H12" s="13"/>
       <c r="I12" s="26"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="41"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="45"/>
       <c r="M12" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N12" s="13"/>
       <c r="O12" s="26"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="41"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="45"/>
       <c r="V12" s="5"/>
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
@@ -1197,28 +1198,26 @@
     </row>
     <row r="13" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="26"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="41"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45"/>
       <c r="G13" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>0</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H13" s="13"/>
       <c r="I13" s="26"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="41"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="45"/>
       <c r="M13" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N13" s="13"/>
       <c r="O13" s="26"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="41"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="45"/>
       <c r="V13" s="5"/>
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
@@ -1227,30 +1226,28 @@
     </row>
     <row r="14" spans="1:26" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="41"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="45"/>
       <c r="F14" s="1"/>
       <c r="G14" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>0</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H14" s="13"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="41"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="45"/>
       <c r="L14" s="1"/>
       <c r="M14" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N14" s="13"/>
       <c r="O14" s="25"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="41"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="45"/>
       <c r="R14" s="1"/>
       <c r="S14" s="2"/>
       <c r="T14" s="3"/>
@@ -1263,7 +1260,7 @@
     </row>
     <row r="15" spans="1:26" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="25"/>
@@ -1271,20 +1268,20 @@
       <c r="E15" s="9"/>
       <c r="F15" s="1"/>
       <c r="G15" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="25"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="9"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="31"/>
       <c r="L15" s="1"/>
       <c r="M15" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N15" s="13"/>
       <c r="O15" s="25"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="9"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="31"/>
       <c r="R15" s="1"/>
       <c r="S15" s="2"/>
       <c r="T15" s="3"/>
@@ -1305,14 +1302,14 @@
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="I16" s="25"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="9"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="31"/>
       <c r="L16" s="1"/>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
       <c r="O16" s="25"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="9"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="31"/>
       <c r="R16" s="1"/>
       <c r="S16" s="2"/>
       <c r="T16" s="3"/>
@@ -1325,26 +1322,28 @@
     </row>
     <row r="17" spans="1:26" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="24"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="47"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="49"/>
       <c r="F17" s="1"/>
       <c r="G17" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="24"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="47"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="49"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="8"/>
+      <c r="M17" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="N17" s="8"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="47"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="49"/>
       <c r="R17" s="1"/>
       <c r="S17" s="2"/>
       <c r="T17" s="3"/>
@@ -1423,20 +1422,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z18"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:E10"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.45" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="10.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="2.42578125" style="1" customWidth="1"/>
-    <col min="7" max="11" width="9.140625" style="1"/>
+    <col min="7" max="11" width="10.28515625" style="1" customWidth="1"/>
     <col min="12" max="12" width="2.42578125" style="1" customWidth="1"/>
-    <col min="13" max="17" width="9.140625" style="1"/>
+    <col min="13" max="17" width="10.28515625" style="1" customWidth="1"/>
     <col min="18" max="18" width="1.85546875" style="1" customWidth="1"/>
     <col min="19" max="19" width="8.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
@@ -1449,27 +1448,27 @@
   <sheetData>
     <row r="1" spans="1:26" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="22"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="30"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="21"/>
       <c r="F1" s="1"/>
       <c r="G1" s="23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1" s="22"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="30"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="34"/>
       <c r="K1" s="21"/>
       <c r="L1" s="1"/>
       <c r="M1" s="23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N1" s="22"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="30"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="34"/>
       <c r="Q1" s="21"/>
       <c r="R1" s="1"/>
       <c r="S1" s="2"/>
@@ -1482,20 +1481,20 @@
       <c r="Z1" s="5"/>
     </row>
     <row r="2" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="31"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="35"/>
       <c r="E2" s="21"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="31"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="35"/>
       <c r="K2" s="21"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="31"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="35"/>
       <c r="Q2" s="21"/>
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
@@ -1504,356 +1503,344 @@
       <c r="Z2" s="5"/>
     </row>
     <row r="3" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="37"/>
+      <c r="A3" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="41"/>
       <c r="C3" s="20"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="G3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="37"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="G3" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="41"/>
       <c r="I3" s="20"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49"/>
-      <c r="M3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" s="37"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="51"/>
+      <c r="M3" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="41"/>
       <c r="O3" s="20"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="49"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="51"/>
     </row>
     <row r="4" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="53"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="43"/>
+      <c r="G4" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="53"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="43"/>
+      <c r="M4" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="53"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="43"/>
+    </row>
+    <row r="5" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39"/>
-      <c r="G4" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="39"/>
-      <c r="M4" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="51"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="39"/>
-    </row>
-    <row r="5" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="51"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="19"/>
       <c r="D5" s="18"/>
       <c r="E5" s="17"/>
-      <c r="G5" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="51"/>
+      <c r="G5" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="53"/>
       <c r="I5" s="19"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="17"/>
-      <c r="M5" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="51"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="33"/>
+      <c r="M5" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="53"/>
       <c r="O5" s="19"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="17"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="33"/>
     </row>
     <row r="6" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="41"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="45"/>
       <c r="G6" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="14"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="41"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="45"/>
       <c r="M6" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N6" s="13"/>
       <c r="O6" s="14"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="41"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="45"/>
     </row>
     <row r="7" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="45"/>
+      <c r="G7" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="45"/>
+      <c r="M7" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="14"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="45"/>
+    </row>
+    <row r="8" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="55"/>
+      <c r="B8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="41"/>
-      <c r="G7" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="13" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="45"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="41"/>
-      <c r="M7" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7" s="13" t="s">
+      <c r="I8" s="14"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="45"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="O7" s="14"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="41"/>
-    </row>
-    <row r="8" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="53"/>
-      <c r="B8" s="13" t="s">
+      <c r="O8" s="14"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="45"/>
+    </row>
+    <row r="9" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="41"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="13" t="s">
+      <c r="B9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="45"/>
+      <c r="G9" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="41"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="13" t="s">
+      <c r="H9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="45"/>
+      <c r="M9" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="O8" s="14"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="41"/>
-    </row>
-    <row r="9" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="s">
+      <c r="N9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="16"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="45"/>
+    </row>
+    <row r="10" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="35"/>
+      <c r="B10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="45"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="16"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="45"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="16"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="45"/>
+    </row>
+    <row r="11" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="41"/>
-      <c r="G9" s="30" t="s">
+      <c r="B11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="45"/>
+      <c r="G11" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="41"/>
-      <c r="M9" s="30" t="s">
+      <c r="H11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="45"/>
+      <c r="M11" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="N9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="O9" s="16"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="41"/>
-    </row>
-    <row r="10" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="31"/>
-      <c r="B10" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="41"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="41"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="O10" s="16"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="41"/>
-    </row>
-    <row r="11" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="30" t="s">
+      <c r="N11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="O11" s="14"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="45"/>
+    </row>
+    <row r="12" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="35"/>
+      <c r="B12" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="41"/>
-      <c r="G11" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="13" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="45"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="41"/>
-      <c r="M11" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="N11" s="13" t="s">
+      <c r="I12" s="14"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="45"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="O11" s="14"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="41"/>
-    </row>
-    <row r="12" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="31"/>
-      <c r="B12" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="41"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="41"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="13" t="s">
-        <v>27</v>
-      </c>
       <c r="O12" s="14"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="41"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="45"/>
     </row>
     <row r="13" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="11"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="55"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="57"/>
       <c r="G13" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>0</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="H13" s="12"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="55"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
       <c r="M13" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N13" s="12"/>
       <c r="O13" s="11"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="55"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="57"/>
     </row>
     <row r="14" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="55"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="57"/>
       <c r="G14" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>0</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="H14" s="12"/>
       <c r="I14" s="15"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="55"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="57"/>
       <c r="M14" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="N14" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="O14" s="14"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="55"/>
+        <v>28</v>
+      </c>
+      <c r="N14" s="12"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="57"/>
     </row>
     <row r="15" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="11"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="41"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="45"/>
       <c r="G15" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>0</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="H15" s="12"/>
       <c r="I15" s="11"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="41"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="45"/>
       <c r="M15" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="N15" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="O15" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="41"/>
+        <v>29</v>
+      </c>
+      <c r="N15" s="12"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="45"/>
     </row>
     <row r="16" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="11"/>
       <c r="D16" s="10"/>
       <c r="E16" s="9"/>
       <c r="G16" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="11"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="9"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="31"/>
       <c r="M16" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N16" s="12"/>
       <c r="O16" s="11"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="9"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="31"/>
     </row>
     <row r="17" spans="1:17" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
@@ -1864,36 +1851,36 @@
       <c r="G17" s="13"/>
       <c r="H17" s="12"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="9"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="31"/>
       <c r="M17" s="13"/>
       <c r="N17" s="12"/>
       <c r="O17" s="11"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="9"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="31"/>
     </row>
     <row r="18" spans="1:17" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
       <c r="G18" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="47"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="49"/>
       <c r="M18" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N18" s="8"/>
       <c r="O18" s="7"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="47"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="66">
@@ -1909,20 +1896,30 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="P12:Q12"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="G11:G12"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="P12:Q12"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="M11:M12"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="M9:M10"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="D7:E7"/>
@@ -1932,16 +1929,6 @@
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="J8:K8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="J6:K6"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="D4:E4"/>

--- a/src/main/resources/hr/payroll.xlsx
+++ b/src/main/resources/hr/payroll.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\laquna-api\src\main\resources\hr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\laquna-api\src\main\resources\hr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7111CCE3-5D4A-4F34-804D-36E5EE5A3596}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BAD1CE-DF5A-4FCD-8F0A-25468B46F2BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21885" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1815" yWindow="465" windowWidth="18720" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="급여표(정규직)" sheetId="11" r:id="rId1"/>
@@ -510,12 +510,42 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="41" fontId="9" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -528,41 +558,11 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -576,11 +576,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="41" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -876,11 +876,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.45" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="10.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="2.42578125" style="1" customWidth="1"/>
@@ -897,116 +897,116 @@
     <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="22"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="34"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="36"/>
       <c r="E1" s="21"/>
       <c r="G1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="22"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="34"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="36"/>
       <c r="K1" s="21"/>
       <c r="M1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="N1" s="22"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="34"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="36"/>
       <c r="Q1" s="21"/>
     </row>
-    <row r="2" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="35"/>
+    <row r="2" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="37"/>
       <c r="E2" s="21"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="35"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="37"/>
       <c r="K2" s="21"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="35"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="37"/>
       <c r="Q2" s="21"/>
     </row>
-    <row r="3" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="27"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="41"/>
       <c r="G3" s="13" t="s">
         <v>1</v>
       </c>
       <c r="H3" s="29"/>
       <c r="I3" s="27"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="47"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="41"/>
       <c r="M3" s="13" t="s">
         <v>1</v>
       </c>
       <c r="N3" s="29"/>
       <c r="O3" s="27"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="47"/>
-    </row>
-    <row r="4" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="P3" s="40"/>
+      <c r="Q3" s="41"/>
+    </row>
+    <row r="4" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="41"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="19"/>
       <c r="D4" s="42"/>
       <c r="E4" s="43"/>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="41"/>
+      <c r="H4" s="45"/>
       <c r="I4" s="19"/>
       <c r="J4" s="42"/>
       <c r="K4" s="43"/>
-      <c r="M4" s="40" t="s">
+      <c r="M4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="41"/>
+      <c r="N4" s="45"/>
       <c r="O4" s="19"/>
       <c r="P4" s="42"/>
       <c r="Q4" s="43"/>
     </row>
-    <row r="5" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="27"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="47"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="41"/>
       <c r="G5" s="13" t="s">
         <v>3</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="27"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="47"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="41"/>
       <c r="M5" s="13" t="s">
         <v>3</v>
       </c>
       <c r="N5" s="13"/>
       <c r="O5" s="27"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="47"/>
-    </row>
-    <row r="6" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P5" s="40"/>
+      <c r="Q5" s="41"/>
+    </row>
+    <row r="6" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
         <v>4</v>
       </c>
@@ -1014,8 +1014,8 @@
         <v>5</v>
       </c>
       <c r="C6" s="27"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="45"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="35"/>
       <c r="G6" s="28" t="s">
         <v>4</v>
       </c>
@@ -1023,8 +1023,8 @@
         <v>5</v>
       </c>
       <c r="I6" s="27"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="45"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="35"/>
       <c r="M6" s="28" t="s">
         <v>4</v>
       </c>
@@ -1032,33 +1032,33 @@
         <v>5</v>
       </c>
       <c r="O6" s="27"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="45"/>
-    </row>
-    <row r="7" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P6" s="34"/>
+      <c r="Q6" s="35"/>
+    </row>
+    <row r="7" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="27"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="45"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35"/>
       <c r="G7" s="13" t="s">
         <v>6</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="27"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="45"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="35"/>
       <c r="M7" s="13" t="s">
         <v>6</v>
       </c>
       <c r="N7" s="13"/>
       <c r="O7" s="27"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="45"/>
-    </row>
-    <row r="8" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P7" s="34"/>
+      <c r="Q7" s="35"/>
+    </row>
+    <row r="8" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="28" t="s">
         <v>7</v>
       </c>
@@ -1066,8 +1066,8 @@
         <v>5</v>
       </c>
       <c r="C8" s="27"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="45"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="35"/>
       <c r="G8" s="28" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1075,8 @@
         <v>5</v>
       </c>
       <c r="I8" s="27"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="45"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="35"/>
       <c r="M8" s="28" t="s">
         <v>7</v>
       </c>
@@ -1084,62 +1084,62 @@
         <v>5</v>
       </c>
       <c r="O8" s="27"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="45"/>
-    </row>
-    <row r="9" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
+      <c r="P8" s="34"/>
+      <c r="Q8" s="35"/>
+    </row>
+    <row r="9" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="36" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="27"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="45"/>
-      <c r="G9" s="34" t="s">
+      <c r="D9" s="34"/>
+      <c r="E9" s="35"/>
+      <c r="G9" s="36" t="s">
         <v>8</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I9" s="27"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="45"/>
-      <c r="M9" s="34" t="s">
+      <c r="J9" s="34"/>
+      <c r="K9" s="35"/>
+      <c r="M9" s="36" t="s">
         <v>8</v>
       </c>
       <c r="N9" s="13" t="s">
         <v>9</v>
       </c>
       <c r="O9" s="27"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="45"/>
-    </row>
-    <row r="10" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="35"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="35"/>
+    </row>
+    <row r="10" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="37"/>
       <c r="B10" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="27"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="45"/>
-      <c r="G10" s="35"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="35"/>
+      <c r="G10" s="37"/>
       <c r="H10" s="13" t="s">
         <v>10</v>
       </c>
       <c r="I10" s="27"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="45"/>
-      <c r="M10" s="35"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="35"/>
+      <c r="M10" s="37"/>
       <c r="N10" s="13" t="s">
         <v>10</v>
       </c>
       <c r="O10" s="27"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="45"/>
-    </row>
-    <row r="11" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P10" s="34"/>
+      <c r="Q10" s="35"/>
+    </row>
+    <row r="11" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
         <v>11</v>
       </c>
@@ -1147,8 +1147,8 @@
         <v>5</v>
       </c>
       <c r="C11" s="27"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="45"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="35"/>
       <c r="G11" s="28" t="s">
         <v>11</v>
       </c>
@@ -1156,8 +1156,8 @@
         <v>5</v>
       </c>
       <c r="I11" s="27"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="45"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="35"/>
       <c r="M11" s="28" t="s">
         <v>11</v>
       </c>
@@ -1165,89 +1165,89 @@
         <v>5</v>
       </c>
       <c r="O11" s="27"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="45"/>
-    </row>
-    <row r="12" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P11" s="34"/>
+      <c r="Q11" s="35"/>
+    </row>
+    <row r="12" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="26"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="45"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="35"/>
       <c r="G12" s="13" t="s">
         <v>12</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="26"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="45"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="35"/>
       <c r="M12" s="13" t="s">
         <v>12</v>
       </c>
       <c r="N12" s="13"/>
       <c r="O12" s="26"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="45"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="35"/>
       <c r="V12" s="5"/>
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
       <c r="Y12" s="6"/>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="26"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="45"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="35"/>
       <c r="G13" s="13" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="26"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="45"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="35"/>
       <c r="M13" s="13" t="s">
         <v>13</v>
       </c>
       <c r="N13" s="13"/>
       <c r="O13" s="26"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="45"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="35"/>
       <c r="V13" s="5"/>
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
       <c r="Y13" s="6"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" spans="1:26" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" s="4" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="45"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="35"/>
       <c r="F14" s="1"/>
       <c r="G14" s="13" t="s">
         <v>14</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="45"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="35"/>
       <c r="L14" s="1"/>
       <c r="M14" s="13" t="s">
         <v>14</v>
       </c>
       <c r="N14" s="13"/>
       <c r="O14" s="25"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="45"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="35"/>
       <c r="R14" s="1"/>
       <c r="S14" s="2"/>
       <c r="T14" s="3"/>
@@ -1258,7 +1258,7 @@
       <c r="Y14" s="6"/>
       <c r="Z14" s="5"/>
     </row>
-    <row r="15" spans="1:26" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" s="4" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>15</v>
       </c>
@@ -1292,7 +1292,7 @@
       <c r="Y15" s="6"/>
       <c r="Z15" s="5"/>
     </row>
-    <row r="16" spans="1:26" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" s="4" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="25"/>
@@ -1320,30 +1320,30 @@
       <c r="Y16" s="6"/>
       <c r="Z16" s="5"/>
     </row>
-    <row r="17" spans="1:26" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" s="4" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="24"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="49"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="39"/>
       <c r="F17" s="1"/>
       <c r="G17" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="24"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="49"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="39"/>
       <c r="L17" s="1"/>
       <c r="M17" s="8" t="s">
         <v>16</v>
       </c>
       <c r="N17" s="8"/>
       <c r="O17" s="24"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="49"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="39"/>
       <c r="R17" s="1"/>
       <c r="S17" s="2"/>
       <c r="T17" s="3"/>
@@ -1356,31 +1356,25 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="P10:Q10"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="J5:K5"/>
@@ -1391,25 +1385,31 @@
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="M9:M10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1425,8 +1425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1446,29 +1446,29 @@
     <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="22"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="34"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="36"/>
       <c r="E1" s="21"/>
       <c r="F1" s="1"/>
       <c r="G1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="22"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="34"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="36"/>
       <c r="K1" s="21"/>
       <c r="L1" s="1"/>
       <c r="M1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="N1" s="22"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="34"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="36"/>
       <c r="Q1" s="21"/>
       <c r="R1" s="1"/>
       <c r="S1" s="2"/>
@@ -1480,21 +1480,21 @@
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
     </row>
-    <row r="2" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="35"/>
+    <row r="2" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="37"/>
       <c r="E2" s="21"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="35"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="37"/>
       <c r="K2" s="21"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="35"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="37"/>
       <c r="Q2" s="21"/>
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
@@ -1502,30 +1502,30 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
     </row>
-    <row r="3" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="40" t="s">
+    <row r="3" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="41"/>
+      <c r="B3" s="45"/>
       <c r="C3" s="20"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-      <c r="G3" s="40" t="s">
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
+      <c r="G3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="41"/>
+      <c r="H3" s="45"/>
       <c r="I3" s="20"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="51"/>
-      <c r="M3" s="40" t="s">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+      <c r="M3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="41"/>
+      <c r="N3" s="45"/>
       <c r="O3" s="20"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="51"/>
-    </row>
-    <row r="4" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P3" s="56"/>
+      <c r="Q3" s="57"/>
+    </row>
+    <row r="4" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
         <v>17</v>
       </c>
@@ -1548,7 +1548,7 @@
       <c r="P4" s="42"/>
       <c r="Q4" s="43"/>
     </row>
-    <row r="5" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
         <v>18</v>
       </c>
@@ -1571,30 +1571,30 @@
       <c r="P5" s="32"/>
       <c r="Q5" s="33"/>
     </row>
-    <row r="6" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="45"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="35"/>
       <c r="G6" s="13" t="s">
         <v>19</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="14"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="45"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="35"/>
       <c r="M6" s="13" t="s">
         <v>19</v>
       </c>
       <c r="N6" s="13"/>
       <c r="O6" s="14"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="45"/>
-    </row>
-    <row r="7" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P6" s="34"/>
+      <c r="Q6" s="35"/>
+    </row>
+    <row r="7" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="54" t="s">
         <v>20</v>
       </c>
@@ -1602,8 +1602,8 @@
         <v>21</v>
       </c>
       <c r="C7" s="14"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="45"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35"/>
       <c r="G7" s="54" t="s">
         <v>20</v>
       </c>
@@ -1611,8 +1611,8 @@
         <v>21</v>
       </c>
       <c r="I7" s="14"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="45"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="35"/>
       <c r="M7" s="54" t="s">
         <v>20</v>
       </c>
@@ -1620,206 +1620,206 @@
         <v>21</v>
       </c>
       <c r="O7" s="14"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="45"/>
-    </row>
-    <row r="8" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P7" s="34"/>
+      <c r="Q7" s="35"/>
+    </row>
+    <row r="8" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="55"/>
       <c r="B8" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="14"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="45"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="35"/>
       <c r="G8" s="55"/>
       <c r="H8" s="13" t="s">
         <v>22</v>
       </c>
       <c r="I8" s="14"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="45"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="35"/>
       <c r="M8" s="55"/>
       <c r="N8" s="13" t="s">
         <v>22</v>
       </c>
       <c r="O8" s="14"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="45"/>
-    </row>
-    <row r="9" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
+      <c r="P8" s="34"/>
+      <c r="Q8" s="35"/>
+    </row>
+    <row r="9" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="36" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="16"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="45"/>
-      <c r="G9" s="34" t="s">
+      <c r="D9" s="34"/>
+      <c r="E9" s="35"/>
+      <c r="G9" s="36" t="s">
         <v>23</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I9" s="16"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="45"/>
-      <c r="M9" s="34" t="s">
+      <c r="J9" s="34"/>
+      <c r="K9" s="35"/>
+      <c r="M9" s="36" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="13" t="s">
         <v>9</v>
       </c>
       <c r="O9" s="16"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="45"/>
-    </row>
-    <row r="10" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="35"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="35"/>
+    </row>
+    <row r="10" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="37"/>
       <c r="B10" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="16"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="45"/>
-      <c r="G10" s="35"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="35"/>
+      <c r="G10" s="37"/>
       <c r="H10" s="13" t="s">
         <v>10</v>
       </c>
       <c r="I10" s="16"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="45"/>
-      <c r="M10" s="35"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="35"/>
+      <c r="M10" s="37"/>
       <c r="N10" s="13" t="s">
         <v>10</v>
       </c>
       <c r="O10" s="16"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="45"/>
-    </row>
-    <row r="11" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
+      <c r="P10" s="34"/>
+      <c r="Q10" s="35"/>
+    </row>
+    <row r="11" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="36" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="14"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="45"/>
-      <c r="G11" s="34" t="s">
+      <c r="D11" s="34"/>
+      <c r="E11" s="35"/>
+      <c r="G11" s="36" t="s">
         <v>24</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>25</v>
       </c>
       <c r="I11" s="14"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="45"/>
-      <c r="M11" s="34" t="s">
+      <c r="J11" s="34"/>
+      <c r="K11" s="35"/>
+      <c r="M11" s="36" t="s">
         <v>24</v>
       </c>
       <c r="N11" s="13" t="s">
         <v>25</v>
       </c>
       <c r="O11" s="14"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="45"/>
-    </row>
-    <row r="12" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="35"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="35"/>
+    </row>
+    <row r="12" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="37"/>
       <c r="B12" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="14"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="45"/>
-      <c r="G12" s="35"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="35"/>
+      <c r="G12" s="37"/>
       <c r="H12" s="13" t="s">
         <v>26</v>
       </c>
       <c r="I12" s="14"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="45"/>
-      <c r="M12" s="35"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="35"/>
+      <c r="M12" s="37"/>
       <c r="N12" s="13" t="s">
         <v>26</v>
       </c>
       <c r="O12" s="14"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="45"/>
-    </row>
-    <row r="13" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P12" s="34"/>
+      <c r="Q12" s="35"/>
+    </row>
+    <row r="13" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="11"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="57"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="51"/>
       <c r="G13" s="13" t="s">
         <v>27</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="57"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="51"/>
       <c r="M13" s="13" t="s">
         <v>27</v>
       </c>
       <c r="N13" s="12"/>
       <c r="O13" s="11"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="57"/>
-    </row>
-    <row r="14" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P13" s="50"/>
+      <c r="Q13" s="51"/>
+    </row>
+    <row r="14" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="57"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
       <c r="G14" s="13" t="s">
         <v>28</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="15"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="57"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="51"/>
       <c r="M14" s="13" t="s">
         <v>28</v>
       </c>
       <c r="N14" s="12"/>
       <c r="O14" s="15"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="57"/>
-    </row>
-    <row r="15" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P14" s="50"/>
+      <c r="Q14" s="51"/>
+    </row>
+    <row r="15" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="11"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="45"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="35"/>
       <c r="G15" s="13" t="s">
         <v>29</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="11"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="45"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="35"/>
       <c r="M15" s="13" t="s">
         <v>29</v>
       </c>
       <c r="N15" s="12"/>
       <c r="O15" s="11"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="45"/>
-    </row>
-    <row r="16" spans="1:26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P15" s="34"/>
+      <c r="Q15" s="35"/>
+    </row>
+    <row r="16" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>30</v>
       </c>
@@ -1842,7 +1842,7 @@
       <c r="P16" s="30"/>
       <c r="Q16" s="31"/>
     </row>
-    <row r="17" spans="1:17" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="12"/>
       <c r="C17" s="11"/>
@@ -1859,50 +1859,66 @@
       <c r="P17" s="30"/>
       <c r="Q17" s="31"/>
     </row>
-    <row r="18" spans="1:17" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39"/>
       <c r="G18" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="49"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="39"/>
       <c r="M18" s="8" t="s">
         <v>16</v>
       </c>
       <c r="N18" s="8"/>
       <c r="O18" s="7"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="49"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="P8:Q8"/>
     <mergeCell ref="P11:Q11"/>
     <mergeCell ref="D12:E12"/>
@@ -1915,41 +1931,25 @@
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="P18:Q18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/src/main/resources/hr/payroll.xlsx
+++ b/src/main/resources/hr/payroll.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\laquna-api\src\main\resources\hr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\laquna-api\src\main\resources\hr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BAD1CE-DF5A-4FCD-8F0A-25468B46F2BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEC01CF-7A02-42C2-81A1-68778DAD5679}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="465" windowWidth="18720" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1815" yWindow="465" windowWidth="18720" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="급여표(정규직)" sheetId="11" r:id="rId1"/>
     <sheet name="급여표(파트타임)" sheetId="10" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'급여표(정규직)'!$A$1:$Q$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'급여표(정규직)'!$A$1:$Q$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'급여표(파트타임)'!$A$1:$Q$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="33">
   <si>
     <t>NO.</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -151,6 +151,14 @@
   </si>
   <si>
     <t>외출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>야간</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -274,7 +282,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -371,6 +379,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -409,7 +439,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
@@ -522,41 +552,65 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="41" fontId="9" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="41" fontId="9" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="41" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
@@ -564,22 +618,28 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -874,13 +934,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16.7" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="10.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="2.42578125" style="1" customWidth="1"/>
@@ -897,325 +955,332 @@
     <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="22"/>
-      <c r="C1" s="48"/>
+      <c r="C1" s="40"/>
       <c r="D1" s="36"/>
       <c r="E1" s="21"/>
       <c r="G1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="22"/>
-      <c r="I1" s="48"/>
+      <c r="I1" s="40"/>
       <c r="J1" s="36"/>
       <c r="K1" s="21"/>
       <c r="M1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="N1" s="22"/>
-      <c r="O1" s="48"/>
+      <c r="O1" s="40"/>
       <c r="P1" s="36"/>
       <c r="Q1" s="21"/>
     </row>
-    <row r="2" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="49"/>
+    <row r="2" spans="1:26" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="37"/>
       <c r="E2" s="21"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="49"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="41"/>
       <c r="J2" s="37"/>
       <c r="K2" s="21"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="49"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="41"/>
       <c r="P2" s="37"/>
       <c r="Q2" s="21"/>
     </row>
-    <row r="3" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="27"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="41"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
       <c r="G3" s="13" t="s">
         <v>1</v>
       </c>
       <c r="H3" s="29"/>
       <c r="I3" s="27"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="41"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="49"/>
       <c r="M3" s="13" t="s">
         <v>1</v>
       </c>
       <c r="N3" s="29"/>
       <c r="O3" s="27"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="41"/>
-    </row>
-    <row r="4" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
+      <c r="P3" s="48"/>
+      <c r="Q3" s="49"/>
+    </row>
+    <row r="4" spans="1:26" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="45"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="19"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="43"/>
-      <c r="G4" s="44" t="s">
+      <c r="D4" s="44"/>
+      <c r="E4" s="45"/>
+      <c r="G4" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="45"/>
+      <c r="H4" s="43"/>
       <c r="I4" s="19"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="43"/>
-      <c r="M4" s="44" t="s">
+      <c r="J4" s="44"/>
+      <c r="K4" s="45"/>
+      <c r="M4" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="45"/>
+      <c r="N4" s="43"/>
       <c r="O4" s="19"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="43"/>
-    </row>
-    <row r="5" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="P4" s="44"/>
+      <c r="Q4" s="45"/>
+    </row>
+    <row r="5" spans="1:26" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="C5" s="27"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="41"/>
-      <c r="G5" s="13" t="s">
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+      <c r="G5" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="13"/>
+      <c r="H5" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="I5" s="27"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="41"/>
-      <c r="M5" s="13" t="s">
+      <c r="J5" s="60"/>
+      <c r="K5" s="61"/>
+      <c r="M5" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="13"/>
+      <c r="N5" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="O5" s="27"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="41"/>
-    </row>
-    <row r="6" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="28" t="s">
+      <c r="P5" s="60"/>
+      <c r="Q5" s="61"/>
+    </row>
+    <row r="6" spans="1:26" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="37"/>
+      <c r="B6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="63"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="27"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="63"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="27"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="63"/>
+    </row>
+    <row r="7" spans="1:26" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="35"/>
-      <c r="G6" s="28" t="s">
+      <c r="C7" s="27"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="47"/>
+      <c r="G7" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="35"/>
-      <c r="M6" s="28" t="s">
+      <c r="I7" s="27"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="47"/>
+      <c r="M7" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="27"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="35"/>
-    </row>
-    <row r="7" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+      <c r="O7" s="27"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="47"/>
+    </row>
+    <row r="8" spans="1:26" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="35"/>
-      <c r="G7" s="13" t="s">
+      <c r="B8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="65"/>
+      <c r="G8" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="35"/>
-      <c r="M7" s="13" t="s">
+      <c r="H8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="27"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="65"/>
+      <c r="M8" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="N7" s="13"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="35"/>
-    </row>
-    <row r="8" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28" t="s">
+      <c r="N8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="27"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="65"/>
+    </row>
+    <row r="9" spans="1:26" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="37"/>
+      <c r="B9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="67"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="27"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="67"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="27"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="67"/>
+    </row>
+    <row r="10" spans="1:26" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="35"/>
-      <c r="G8" s="28" t="s">
+      <c r="C10" s="27"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
+      <c r="G10" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="35"/>
-      <c r="M8" s="28" t="s">
+      <c r="I10" s="27"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="47"/>
+      <c r="M10" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="13" t="s">
+      <c r="N10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="O8" s="27"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="35"/>
-    </row>
-    <row r="9" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="36" t="s">
+      <c r="O10" s="27"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="47"/>
+    </row>
+    <row r="11" spans="1:26" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="35"/>
-      <c r="G9" s="36" t="s">
+      <c r="C11" s="27"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="65"/>
+      <c r="G11" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="27"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="35"/>
-      <c r="M9" s="36" t="s">
+      <c r="I11" s="27"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="65"/>
+      <c r="M11" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="N9" s="13" t="s">
+      <c r="N11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="O9" s="27"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="35"/>
-    </row>
-    <row r="10" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="37"/>
-      <c r="B10" s="13" t="s">
+      <c r="O11" s="27"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="65"/>
+    </row>
+    <row r="12" spans="1:26" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="37"/>
+      <c r="B12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="35"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="13" t="s">
+      <c r="C12" s="27"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="67"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="35"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="13" t="s">
+      <c r="I12" s="27"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="67"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="O10" s="27"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="35"/>
-    </row>
-    <row r="11" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28" t="s">
+      <c r="O12" s="27"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="67"/>
+    </row>
+    <row r="13" spans="1:26" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B13" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="35"/>
-      <c r="G11" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="35"/>
-      <c r="M11" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="N11" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O11" s="27"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="35"/>
-    </row>
-    <row r="12" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="35"/>
-      <c r="G12" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="35"/>
-      <c r="M12" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N12" s="13"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="35"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="5"/>
-    </row>
-    <row r="13" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="26"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="34"/>
       <c r="E13" s="35"/>
-      <c r="G13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="26"/>
+      <c r="G13" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="27"/>
       <c r="J13" s="34"/>
       <c r="K13" s="35"/>
-      <c r="M13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="26"/>
+      <c r="M13" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="O13" s="27"/>
       <c r="P13" s="34"/>
       <c r="Q13" s="35"/>
       <c r="V13" s="5"/>
@@ -1224,64 +1289,58 @@
       <c r="Y13" s="6"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" spans="1:26" s="4" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" s="13"/>
-      <c r="C14" s="25"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="34"/>
       <c r="E14" s="35"/>
-      <c r="F14" s="1"/>
       <c r="G14" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H14" s="13"/>
-      <c r="I14" s="25"/>
+      <c r="I14" s="26"/>
       <c r="J14" s="34"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="1"/>
       <c r="M14" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N14" s="13"/>
-      <c r="O14" s="25"/>
+      <c r="O14" s="26"/>
       <c r="P14" s="34"/>
       <c r="Q14" s="35"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="1"/>
       <c r="V14" s="5"/>
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
       <c r="Z14" s="5"/>
     </row>
-    <row r="15" spans="1:26" s="4" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" s="4" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" s="13"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="9"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="35"/>
       <c r="F15" s="1"/>
       <c r="G15" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H15" s="13"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="31"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="35"/>
       <c r="L15" s="1"/>
       <c r="M15" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N15" s="13"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="31"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="35"/>
       <c r="R15" s="1"/>
       <c r="S15" s="2"/>
       <c r="T15" s="3"/>
@@ -1292,24 +1351,30 @@
       <c r="Y15" s="6"/>
       <c r="Z15" s="5"/>
     </row>
-    <row r="16" spans="1:26" s="4" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
+    <row r="16" spans="1:26" s="4" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="B16" s="13"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="9"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="35"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="13"/>
+      <c r="G16" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="H16" s="13"/>
       <c r="I16" s="25"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="31"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="35"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="13"/>
+      <c r="M16" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="N16" s="13"/>
       <c r="O16" s="25"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="31"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="35"/>
       <c r="R16" s="1"/>
       <c r="S16" s="2"/>
       <c r="T16" s="3"/>
@@ -1320,30 +1385,30 @@
       <c r="Y16" s="6"/>
       <c r="Z16" s="5"/>
     </row>
-    <row r="17" spans="1:26" s="4" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
+    <row r="17" spans="1:26" s="4" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="35"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="39"/>
+      <c r="G17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="35"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="N17" s="8"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="39"/>
+      <c r="M17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="N17" s="13"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="35"/>
       <c r="R17" s="1"/>
       <c r="S17" s="2"/>
       <c r="T17" s="3"/>
@@ -1354,8 +1419,78 @@
       <c r="Y17" s="6"/>
       <c r="Z17" s="5"/>
     </row>
+    <row r="18" spans="1:26" s="4" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N18" s="8"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="45">
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="J5:K6"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="J8:K9"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="P5:Q6"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="P8:Q9"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="J11:K12"/>
+    <mergeCell ref="P11:Q12"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="M4:N4"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="G2:H2"/>
@@ -1365,51 +1500,6 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="O1:O2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="M9:M10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1425,8 +1515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1451,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="22"/>
-      <c r="C1" s="48"/>
+      <c r="C1" s="40"/>
       <c r="D1" s="36"/>
       <c r="E1" s="21"/>
       <c r="F1" s="1"/>
@@ -1459,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="22"/>
-      <c r="I1" s="48"/>
+      <c r="I1" s="40"/>
       <c r="J1" s="36"/>
       <c r="K1" s="21"/>
       <c r="L1" s="1"/>
@@ -1467,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="22"/>
-      <c r="O1" s="48"/>
+      <c r="O1" s="40"/>
       <c r="P1" s="36"/>
       <c r="Q1" s="21"/>
       <c r="R1" s="1"/>
@@ -1481,19 +1571,19 @@
       <c r="Z1" s="5"/>
     </row>
     <row r="2" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="49"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="37"/>
       <c r="E2" s="21"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="49"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="41"/>
       <c r="J2" s="37"/>
       <c r="K2" s="21"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="49"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="41"/>
       <c r="P2" s="37"/>
       <c r="Q2" s="21"/>
       <c r="V2" s="5"/>
@@ -1503,357 +1593,369 @@
       <c r="Z2" s="5"/>
     </row>
     <row r="3" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="45"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="20"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="57"/>
-      <c r="G3" s="44" t="s">
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
+      <c r="G3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="45"/>
+      <c r="H3" s="43"/>
       <c r="I3" s="20"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-      <c r="M3" s="44" t="s">
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
+      <c r="M3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="45"/>
+      <c r="N3" s="43"/>
       <c r="O3" s="20"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="57"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="53"/>
     </row>
     <row r="4" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="53"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="19"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="43"/>
-      <c r="G4" s="52" t="s">
+      <c r="D4" s="44"/>
+      <c r="E4" s="45"/>
+      <c r="G4" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="53"/>
+      <c r="H4" s="55"/>
       <c r="I4" s="19"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="43"/>
-      <c r="M4" s="52" t="s">
+      <c r="J4" s="44"/>
+      <c r="K4" s="45"/>
+      <c r="M4" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="53"/>
+      <c r="N4" s="55"/>
       <c r="O4" s="19"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="43"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="45"/>
     </row>
     <row r="5" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="53"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="19"/>
       <c r="D5" s="18"/>
       <c r="E5" s="17"/>
-      <c r="G5" s="52" t="s">
+      <c r="G5" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="53"/>
+      <c r="H5" s="55"/>
       <c r="I5" s="19"/>
       <c r="J5" s="32"/>
       <c r="K5" s="33"/>
-      <c r="M5" s="52" t="s">
+      <c r="M5" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="53"/>
+      <c r="N5" s="55"/>
       <c r="O5" s="19"/>
       <c r="P5" s="32"/>
       <c r="Q5" s="33"/>
     </row>
     <row r="6" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="13"/>
+      <c r="B6" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="C6" s="14"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="35"/>
-      <c r="G6" s="13" t="s">
+      <c r="D6" s="64"/>
+      <c r="E6" s="65"/>
+      <c r="G6" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="13"/>
+      <c r="H6" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="I6" s="14"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="35"/>
-      <c r="M6" s="13" t="s">
+      <c r="J6" s="64"/>
+      <c r="K6" s="65"/>
+      <c r="M6" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="13"/>
+      <c r="N6" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="O6" s="14"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="35"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="65"/>
     </row>
     <row r="7" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="67"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="67"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="14"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="67"/>
+    </row>
+    <row r="8" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="35"/>
-      <c r="G7" s="54" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="65"/>
+      <c r="G8" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="35"/>
-      <c r="M7" s="54" t="s">
+      <c r="I8" s="14"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="65"/>
+      <c r="M8" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="N8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="14"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="35"/>
-    </row>
-    <row r="8" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="55"/>
-      <c r="B8" s="13" t="s">
+      <c r="O8" s="14"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="65"/>
+    </row>
+    <row r="9" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="57"/>
+      <c r="B9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="35"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="13" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="67"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="35"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="13" t="s">
+      <c r="I9" s="14"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="67"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="O8" s="14"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="35"/>
-    </row>
-    <row r="9" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="36" t="s">
+      <c r="O9" s="14"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="67"/>
+    </row>
+    <row r="10" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="35"/>
-      <c r="G9" s="36" t="s">
+      <c r="C10" s="16"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="65"/>
+      <c r="G10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="35"/>
-      <c r="M9" s="36" t="s">
+      <c r="I10" s="16"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="65"/>
+      <c r="M10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="13" t="s">
+      <c r="N10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="O9" s="16"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="35"/>
-    </row>
-    <row r="10" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="37"/>
-      <c r="B10" s="13" t="s">
+      <c r="O10" s="16"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="65"/>
+    </row>
+    <row r="11" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="37"/>
+      <c r="B11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="35"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="13" t="s">
+      <c r="C11" s="16"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="35"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="13" t="s">
+      <c r="I11" s="16"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="67"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="O10" s="16"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="35"/>
-    </row>
-    <row r="11" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="36" t="s">
+      <c r="O11" s="16"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="67"/>
+    </row>
+    <row r="12" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="35"/>
-      <c r="G11" s="36" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="47"/>
+      <c r="G12" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="35"/>
-      <c r="M11" s="36" t="s">
+      <c r="I12" s="14"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="47"/>
+      <c r="M12" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="N11" s="13" t="s">
+      <c r="N12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="O11" s="14"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="35"/>
-    </row>
-    <row r="12" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="37"/>
-      <c r="B12" s="13" t="s">
+      <c r="O12" s="14"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="47"/>
+    </row>
+    <row r="13" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="37"/>
+      <c r="B13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="35"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="13" t="s">
+      <c r="C13" s="14"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="47"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="35"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="13" t="s">
+      <c r="I13" s="14"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="47"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="O12" s="14"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="35"/>
-    </row>
-    <row r="13" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="51"/>
-      <c r="G13" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="51"/>
-      <c r="M13" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="N13" s="12"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="51"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="47"/>
     </row>
     <row r="14" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="12"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="51"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="59"/>
       <c r="G14" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H14" s="12"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="51"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="59"/>
       <c r="M14" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N14" s="12"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="51"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="59"/>
     </row>
     <row r="15" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="12"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="35"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
       <c r="G15" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H15" s="12"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="35"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="59"/>
       <c r="M15" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N15" s="12"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="35"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="59"/>
     </row>
     <row r="16" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="11"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="9"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="47"/>
       <c r="G16" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="11"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="31"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="47"/>
       <c r="M16" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N16" s="12"/>
       <c r="O16" s="11"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="31"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="47"/>
     </row>
     <row r="17" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
+      <c r="A17" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="B17" s="12"/>
       <c r="C17" s="11"/>
       <c r="D17" s="10"/>
       <c r="E17" s="9"/>
-      <c r="G17" s="13"/>
+      <c r="G17" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="H17" s="12"/>
       <c r="I17" s="11"/>
       <c r="J17" s="30"/>
       <c r="K17" s="31"/>
-      <c r="M17" s="13"/>
+      <c r="M17" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="N17" s="12"/>
       <c r="O17" s="11"/>
       <c r="P17" s="30"/>
@@ -1865,34 +1967,67 @@
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="51"/>
       <c r="G18" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="39"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="51"/>
       <c r="M18" s="8" t="s">
         <v>16</v>
       </c>
       <c r="N18" s="8"/>
       <c r="O18" s="7"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="39"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="66">
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
+  <mergeCells count="63">
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="D10:E11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="J10:K11"/>
+    <mergeCell ref="P10:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="J8:K9"/>
+    <mergeCell ref="P6:Q7"/>
+    <mergeCell ref="P8:Q9"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="D4:E4"/>
@@ -1905,51 +2040,15 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="M3:N3"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/src/main/resources/hr/payroll.xlsx
+++ b/src/main/resources/hr/payroll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\laquna-api\src\main\resources\hr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEC01CF-7A02-42C2-81A1-68778DAD5679}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DA6217-E127-4A58-AB6A-1A0FFC99AA84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1815" yWindow="465" windowWidth="18720" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -439,7 +439,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
@@ -465,12 +465,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -487,12 +481,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="180" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="2" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -528,77 +516,83 @@
     <xf numFmtId="177" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="41" fontId="9" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -612,34 +606,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -956,333 +926,333 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="21"/>
-      <c r="G1" s="23" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="17"/>
+      <c r="G1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="21"/>
-      <c r="M1" s="23" t="s">
+      <c r="H1" s="18"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="17"/>
+      <c r="M1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="21"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="17"/>
     </row>
     <row r="2" spans="1:26" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="21"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="21"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="21"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="17"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="17"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="17"/>
     </row>
     <row r="3" spans="1:26" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="G3" s="13" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="41"/>
+      <c r="G3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49"/>
-      <c r="M3" s="13" t="s">
+      <c r="H3" s="25"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="41"/>
+      <c r="M3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="29"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="49"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="41"/>
     </row>
     <row r="4" spans="1:26" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="45"/>
-      <c r="G4" s="42" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="43"/>
+      <c r="G4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="43"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="45"/>
-      <c r="M4" s="42" t="s">
+      <c r="H4" s="45"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="43"/>
+      <c r="M4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="43"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="43"/>
     </row>
     <row r="5" spans="1:26" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="61"/>
-      <c r="G5" s="36" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="27"/>
+      <c r="G5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="61"/>
-      <c r="M5" s="36" t="s">
+      <c r="I5" s="23"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="27"/>
+      <c r="M5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="O5" s="27"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="61"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="27"/>
     </row>
     <row r="6" spans="1:26" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="37"/>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="35"/>
+      <c r="B6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="63"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="13" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="63"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="13" t="s">
+      <c r="I6" s="23"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="29"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="27"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="63"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="29"/>
     </row>
     <row r="7" spans="1:26" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="47"/>
-      <c r="G7" s="28" t="s">
+      <c r="C7" s="23"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37"/>
+      <c r="G7" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="47"/>
-      <c r="M7" s="28" t="s">
+      <c r="I7" s="23"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="37"/>
+      <c r="M7" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="N7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="O7" s="27"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="47"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="37"/>
     </row>
     <row r="8" spans="1:26" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="65"/>
-      <c r="G8" s="36" t="s">
+      <c r="C8" s="23"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="31"/>
+      <c r="G8" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="65"/>
-      <c r="M8" s="36" t="s">
+      <c r="I8" s="23"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="31"/>
+      <c r="M8" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="13" t="s">
+      <c r="N8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="O8" s="27"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="65"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="31"/>
     </row>
     <row r="9" spans="1:26" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="37"/>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="35"/>
+      <c r="B9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="67"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="13" t="s">
+      <c r="C9" s="23"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="27"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="67"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="13" t="s">
+      <c r="I9" s="23"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="33"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="O9" s="27"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="67"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="33"/>
     </row>
     <row r="10" spans="1:26" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47"/>
-      <c r="G10" s="28" t="s">
+      <c r="C10" s="23"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="37"/>
+      <c r="G10" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="47"/>
-      <c r="M10" s="28" t="s">
+      <c r="I10" s="23"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="37"/>
+      <c r="M10" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="N10" s="13" t="s">
+      <c r="N10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="27"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="47"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="37"/>
     </row>
     <row r="11" spans="1:26" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="65"/>
-      <c r="G11" s="36" t="s">
+      <c r="C11" s="23"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="31"/>
+      <c r="G11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="65"/>
-      <c r="M11" s="36" t="s">
+      <c r="I11" s="23"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="31"/>
+      <c r="M11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="13" t="s">
+      <c r="N11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="O11" s="27"/>
-      <c r="P11" s="64"/>
-      <c r="Q11" s="65"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="31"/>
     </row>
     <row r="12" spans="1:26" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="37"/>
-      <c r="B12" s="13" t="s">
+      <c r="A12" s="35"/>
+      <c r="B12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="67"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="13" t="s">
+      <c r="C12" s="23"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="33"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="27"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="67"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="13" t="s">
+      <c r="I12" s="23"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="33"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="O12" s="27"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="67"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="33"/>
     </row>
     <row r="13" spans="1:26" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="35"/>
-      <c r="G13" s="28" t="s">
+      <c r="C13" s="23"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="37"/>
+      <c r="G13" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="27"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="35"/>
-      <c r="M13" s="28" t="s">
+      <c r="I13" s="23"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="37"/>
+      <c r="M13" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="13" t="s">
+      <c r="N13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="O13" s="27"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="35"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="37"/>
       <c r="V13" s="5"/>
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
@@ -1290,27 +1260,27 @@
       <c r="Z13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="35"/>
-      <c r="G14" s="13" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="37"/>
+      <c r="G14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="35"/>
-      <c r="M14" s="13" t="s">
+      <c r="H14" s="11"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="37"/>
+      <c r="M14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N14" s="13"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="35"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="37"/>
       <c r="V14" s="5"/>
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
@@ -1318,29 +1288,29 @@
       <c r="Z14" s="5"/>
     </row>
     <row r="15" spans="1:26" s="4" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="35"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="37"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="35"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="37"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="13" t="s">
+      <c r="M15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N15" s="13"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="35"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="37"/>
       <c r="R15" s="1"/>
       <c r="S15" s="2"/>
       <c r="T15" s="3"/>
@@ -1352,29 +1322,29 @@
       <c r="Z15" s="5"/>
     </row>
     <row r="16" spans="1:26" s="4" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="35"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="37"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="35"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="37"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="13" t="s">
+      <c r="M16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="N16" s="13"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="35"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="37"/>
       <c r="R16" s="1"/>
       <c r="S16" s="2"/>
       <c r="T16" s="3"/>
@@ -1386,29 +1356,29 @@
       <c r="Z16" s="5"/>
     </row>
     <row r="17" spans="1:26" s="4" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="35"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="37"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="35"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="37"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="13" t="s">
+      <c r="M17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N17" s="13"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="35"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="37"/>
       <c r="R17" s="1"/>
       <c r="S17" s="2"/>
       <c r="T17" s="3"/>
@@ -1424,25 +1394,25 @@
         <v>16</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="51"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39"/>
       <c r="F18" s="1"/>
       <c r="G18" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H18" s="8"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="51"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="39"/>
       <c r="L18" s="1"/>
       <c r="M18" s="8" t="s">
         <v>16</v>
       </c>
       <c r="N18" s="8"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="51"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="39"/>
       <c r="R18" s="1"/>
       <c r="S18" s="2"/>
       <c r="T18" s="3"/>
@@ -1454,43 +1424,11 @@
       <c r="Z18" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="D5:E6"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="J5:K6"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="J8:K9"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="P5:Q6"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="P8:Q9"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="J11:K12"/>
-    <mergeCell ref="P11:Q12"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="M4:N4"/>
+  <mergeCells count="60">
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="G2:H2"/>
@@ -1500,6 +1438,53 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="O1:O2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="P5:Q6"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="P8:Q9"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="J11:K12"/>
+    <mergeCell ref="P11:Q12"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="J5:K6"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="J8:K9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1516,7 +1501,7 @@
   <dimension ref="A1:Z18"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:E11"/>
+      <selection activeCell="G10" sqref="G10:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1537,29 +1522,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="17"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="21"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="17"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="21"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="17"/>
       <c r="R1" s="1"/>
       <c r="S1" s="2"/>
       <c r="T1" s="3"/>
@@ -1571,21 +1556,21 @@
       <c r="Z1" s="5"/>
     </row>
     <row r="2" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="21"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="21"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="21"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="17"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="17"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="17"/>
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
@@ -1593,373 +1578,373 @@
       <c r="Z2" s="5"/>
     </row>
     <row r="3" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53"/>
-      <c r="G3" s="42" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
+      <c r="G3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="43"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
-      <c r="M3" s="42" t="s">
+      <c r="H3" s="45"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+      <c r="M3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="43"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="53"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="57"/>
     </row>
     <row r="4" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="45"/>
-      <c r="G4" s="54" t="s">
+      <c r="B4" s="53"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="43"/>
+      <c r="G4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="45"/>
-      <c r="M4" s="54" t="s">
+      <c r="H4" s="53"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="43"/>
+      <c r="M4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="55"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="45"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="43"/>
     </row>
     <row r="5" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="17"/>
-      <c r="G5" s="54" t="s">
+      <c r="B5" s="53"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="43"/>
+      <c r="G5" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="33"/>
-      <c r="M5" s="54" t="s">
+      <c r="H5" s="53"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="43"/>
+      <c r="M5" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="55"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="33"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="43"/>
     </row>
     <row r="6" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="65"/>
-      <c r="G6" s="36" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="31"/>
+      <c r="G6" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="65"/>
-      <c r="M6" s="36" t="s">
+      <c r="I6" s="12"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="31"/>
+      <c r="M6" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="65"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="31"/>
     </row>
     <row r="7" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="37"/>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="35"/>
+      <c r="B7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="67"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="13" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="67"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="13" t="s">
+      <c r="I7" s="12"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="33"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="O7" s="14"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="67"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="33"/>
     </row>
     <row r="8" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="65"/>
-      <c r="G8" s="56" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="31"/>
+      <c r="G8" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="65"/>
-      <c r="M8" s="56" t="s">
+      <c r="I8" s="12"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="31"/>
+      <c r="M8" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="13" t="s">
+      <c r="N8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="O8" s="14"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="65"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="31"/>
     </row>
     <row r="9" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="57"/>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="55"/>
+      <c r="B9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="67"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="13" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="67"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="13" t="s">
+      <c r="I9" s="12"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="33"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="14"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="67"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="33"/>
     </row>
     <row r="10" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="65"/>
-      <c r="G10" s="36" t="s">
+      <c r="C10" s="14"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="31"/>
+      <c r="G10" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="65"/>
-      <c r="M10" s="36" t="s">
+      <c r="I10" s="14"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="31"/>
+      <c r="M10" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="N10" s="13" t="s">
+      <c r="N10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="O10" s="16"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="65"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="31"/>
     </row>
     <row r="11" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="37"/>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="35"/>
+      <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="67"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="13" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="67"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="13" t="s">
+      <c r="I11" s="14"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="33"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="O11" s="16"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="67"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="33"/>
     </row>
     <row r="12" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="47"/>
-      <c r="G12" s="36" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
+      <c r="G12" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="47"/>
-      <c r="M12" s="36" t="s">
+      <c r="I12" s="12"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="37"/>
+      <c r="M12" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="N12" s="13" t="s">
+      <c r="N12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="O12" s="14"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="47"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="37"/>
     </row>
     <row r="13" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="37"/>
-      <c r="B13" s="13" t="s">
+      <c r="A13" s="35"/>
+      <c r="B13" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="47"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="13" t="s">
+      <c r="C13" s="12"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="37"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="47"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="13" t="s">
+      <c r="I13" s="12"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="37"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O13" s="14"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="47"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="37"/>
     </row>
     <row r="14" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="59"/>
-      <c r="G14" s="13" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
+      <c r="G14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="59"/>
-      <c r="M14" s="13" t="s">
+      <c r="H14" s="10"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="51"/>
+      <c r="M14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="N14" s="12"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="59"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="51"/>
     </row>
     <row r="15" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="G15" s="13" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="51"/>
+      <c r="G15" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="59"/>
-      <c r="M15" s="13" t="s">
+      <c r="H15" s="10"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="51"/>
+      <c r="M15" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N15" s="12"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="59"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="51"/>
     </row>
     <row r="16" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="47"/>
-      <c r="G16" s="13" t="s">
+      <c r="B16" s="10"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="37"/>
+      <c r="G16" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="47"/>
-      <c r="M16" s="13" t="s">
+      <c r="H16" s="10"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="37"/>
+      <c r="M16" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N16" s="12"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="47"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="37"/>
     </row>
     <row r="17" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="9"/>
-      <c r="G17" s="13" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="37"/>
+      <c r="G17" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="31"/>
-      <c r="M17" s="13" t="s">
+      <c r="H17" s="10"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="37"/>
+      <c r="M17" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="N17" s="12"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="31"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
@@ -1967,65 +1952,36 @@
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="51"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39"/>
       <c r="G18" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="51"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="39"/>
       <c r="M18" s="8" t="s">
         <v>16</v>
       </c>
       <c r="N18" s="8"/>
       <c r="O18" s="7"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="51"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="63">
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="D10:E11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="J10:K11"/>
-    <mergeCell ref="P10:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="D6:E7"/>
-    <mergeCell ref="J6:K7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="J8:K9"/>
+  <mergeCells count="69">
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="P6:Q7"/>
     <mergeCell ref="P8:Q9"/>
     <mergeCell ref="P3:Q3"/>
@@ -2040,15 +1996,50 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="M3:N3"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="J8:K9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="J10:K11"/>
+    <mergeCell ref="P10:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="D10:E11"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="J17:K17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
